--- a/Table S4 step-3.xlsx
+++ b/Table S4 step-3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33ECEA5-EDED-44E7-8BC0-3FA72EDDE8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A635D8-9522-4F2B-977F-2BA5F1789652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2616" yWindow="444" windowWidth="23232" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25485" yWindow="2175" windowWidth="23940" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1339,10 +1339,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="19" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
